--- a/인생_시뮬레이터.xlsx
+++ b/인생_시뮬레이터.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>턴</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +187,38 @@
   </si>
   <si>
     <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금거래소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미술관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡화점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,8 +300,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -389,13 +427,274 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -429,22 +728,151 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,9 +1161,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -749,256 +1179,256 @@
       <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="11">
         <v>1</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="11">
         <v>2</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="11">
         <v>3</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="11">
         <v>4</v>
       </c>
-      <c r="G1" s="12">
-        <v>5</v>
-      </c>
-      <c r="H1" s="12">
+      <c r="G1" s="11">
+        <v>5</v>
+      </c>
+      <c r="H1" s="11">
         <v>6</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="11">
         <v>7</v>
       </c>
-      <c r="J1" s="12">
+      <c r="J1" s="11">
         <v>8</v>
       </c>
-      <c r="K1" s="12">
+      <c r="K1" s="11">
         <v>9</v>
       </c>
-      <c r="L1" s="12">
+      <c r="L1" s="11">
         <v>10</v>
       </c>
-      <c r="M1" s="12">
+      <c r="M1" s="11">
         <v>11</v>
       </c>
-      <c r="N1" s="12">
+      <c r="N1" s="11">
         <v>12</v>
       </c>
-      <c r="O1" s="12">
+      <c r="O1" s="11">
         <v>13</v>
       </c>
-      <c r="P1" s="12">
+      <c r="P1" s="11">
         <v>14</v>
       </c>
-      <c r="Q1" s="12">
+      <c r="Q1" s="11">
         <v>15</v>
       </c>
-      <c r="R1" s="12">
+      <c r="R1" s="11">
         <v>16</v>
       </c>
-      <c r="S1" s="12">
+      <c r="S1" s="11">
         <v>17</v>
       </c>
-      <c r="T1" s="12">
+      <c r="T1" s="11">
         <v>18</v>
       </c>
-      <c r="U1" s="12">
+      <c r="U1" s="11">
         <v>19</v>
       </c>
-      <c r="V1" s="12">
+      <c r="V1" s="11">
         <v>20</v>
       </c>
-      <c r="W1" s="12">
+      <c r="W1" s="11">
         <v>21</v>
       </c>
-      <c r="X1" s="12">
+      <c r="X1" s="11">
         <v>22</v>
       </c>
-      <c r="Y1" s="12">
+      <c r="Y1" s="11">
         <v>23</v>
       </c>
-      <c r="Z1" s="12">
+      <c r="Z1" s="11">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="14">
-        <v>5</v>
-      </c>
-      <c r="D2" s="15">
-        <v>5</v>
-      </c>
-      <c r="E2" s="15">
-        <v>5</v>
-      </c>
-      <c r="F2" s="15">
-        <v>5</v>
-      </c>
-      <c r="G2" s="15">
-        <v>5</v>
-      </c>
-      <c r="H2" s="15">
-        <v>5</v>
-      </c>
-      <c r="I2" s="15">
-        <v>5</v>
-      </c>
-      <c r="J2" s="15">
-        <v>5</v>
-      </c>
-      <c r="K2" s="15">
-        <v>5</v>
-      </c>
-      <c r="L2" s="15">
-        <v>5</v>
-      </c>
-      <c r="M2" s="15">
-        <v>5</v>
-      </c>
-      <c r="N2" s="15">
-        <v>5</v>
-      </c>
-      <c r="O2" s="15">
-        <v>5</v>
-      </c>
-      <c r="P2" s="15">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="15">
-        <v>5</v>
-      </c>
-      <c r="R2" s="15">
-        <v>5</v>
-      </c>
-      <c r="S2" s="15">
-        <v>5</v>
-      </c>
-      <c r="T2" s="15">
-        <v>5</v>
-      </c>
-      <c r="U2" s="15">
-        <v>5</v>
-      </c>
-      <c r="V2" s="15">
-        <v>5</v>
-      </c>
-      <c r="W2" s="15">
-        <v>5</v>
-      </c>
-      <c r="X2" s="15">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="15">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="16">
+      <c r="B2" s="16"/>
+      <c r="C2" s="13">
+        <v>5</v>
+      </c>
+      <c r="D2" s="14">
+        <v>5</v>
+      </c>
+      <c r="E2" s="14">
+        <v>5</v>
+      </c>
+      <c r="F2" s="14">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14">
+        <v>5</v>
+      </c>
+      <c r="H2" s="14">
+        <v>5</v>
+      </c>
+      <c r="I2" s="14">
+        <v>5</v>
+      </c>
+      <c r="J2" s="14">
+        <v>5</v>
+      </c>
+      <c r="K2" s="14">
+        <v>5</v>
+      </c>
+      <c r="L2" s="14">
+        <v>5</v>
+      </c>
+      <c r="M2" s="14">
+        <v>5</v>
+      </c>
+      <c r="N2" s="14">
+        <v>5</v>
+      </c>
+      <c r="O2" s="14">
+        <v>5</v>
+      </c>
+      <c r="P2" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>5</v>
+      </c>
+      <c r="R2" s="14">
+        <v>5</v>
+      </c>
+      <c r="S2" s="14">
+        <v>5</v>
+      </c>
+      <c r="T2" s="14">
+        <v>5</v>
+      </c>
+      <c r="U2" s="14">
+        <v>5</v>
+      </c>
+      <c r="V2" s="14">
+        <v>5</v>
+      </c>
+      <c r="W2" s="14">
+        <v>5</v>
+      </c>
+      <c r="X2" s="14">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="13" t="str">
-        <f>HLOOKUP(C2,$B$11:$W$12,2,FALSE)</f>
+      <c r="B3" s="18"/>
+      <c r="C3" s="12" t="str">
+        <f>HLOOKUP(C2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
-      <c r="D3" s="13" t="str">
-        <f t="shared" ref="D3:Z3" si="0">HLOOKUP(D2,$B$11:$W$12,2,FALSE)</f>
+      <c r="D3" s="12" t="str">
+        <f>HLOOKUP(D2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
-      <c r="E3" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="E3" s="12" t="str">
+        <f>HLOOKUP(E2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
-      <c r="F3" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="F3" s="12" t="str">
+        <f>HLOOKUP(F2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
-      <c r="G3" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="G3" s="12" t="str">
+        <f>HLOOKUP(G2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
-      <c r="H3" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="H3" s="12" t="str">
+        <f>HLOOKUP(H2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
-      <c r="I3" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="I3" s="12" t="str">
+        <f>HLOOKUP(I2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
-      <c r="J3" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="J3" s="12" t="str">
+        <f>HLOOKUP(J2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
-      <c r="K3" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="K3" s="12" t="str">
+        <f>HLOOKUP(K2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
-      <c r="L3" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="L3" s="12" t="str">
+        <f>HLOOKUP(L2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
-      <c r="M3" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="M3" s="12" t="str">
+        <f>HLOOKUP(M2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
-      <c r="N3" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="N3" s="12" t="str">
+        <f>HLOOKUP(N2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
-      <c r="O3" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="O3" s="12" t="str">
+        <f>HLOOKUP(O2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
-      <c r="P3" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="P3" s="12" t="str">
+        <f>HLOOKUP(P2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
-      <c r="Q3" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="Q3" s="12" t="str">
+        <f>HLOOKUP(Q2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
-      <c r="R3" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="R3" s="12" t="str">
+        <f>HLOOKUP(R2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
-      <c r="S3" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="S3" s="12" t="str">
+        <f>HLOOKUP(S2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
-      <c r="T3" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="T3" s="12" t="str">
+        <f>HLOOKUP(T2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
-      <c r="U3" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="U3" s="12" t="str">
+        <f>HLOOKUP(U2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
-      <c r="V3" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="V3" s="12" t="str">
+        <f>HLOOKUP(V2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
-      <c r="W3" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="W3" s="12" t="str">
+        <f>HLOOKUP(W2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
-      <c r="X3" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="X3" s="12" t="str">
+        <f>HLOOKUP(X2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
-      <c r="Y3" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="Y3" s="12" t="str">
+        <f>HLOOKUP(Y2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
-      <c r="Z3" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z3" s="12" t="str">
+        <f>HLOOKUP(Z2,$B$13:$W$14,2,FALSE)</f>
         <v>농장</v>
       </c>
     </row>
@@ -1010,99 +1440,99 @@
         <v>30</v>
       </c>
       <c r="C4" s="2">
-        <f>B4+HLOOKUP(C$3,$B$12:$W$18,$A13,FALSE)</f>
+        <f>B4+HLOOKUP(C$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:Z9" si="1">C4+HLOOKUP(D$3,$B$12:$W$18,$A13,FALSE)</f>
+        <f>C4+HLOOKUP(D$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="1"/>
+        <f>D4+HLOOKUP(E$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="1"/>
+        <f>E4+HLOOKUP(F$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="1"/>
+        <f>F4+HLOOKUP(G$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="1"/>
+        <f>G4+HLOOKUP(H$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="1"/>
+        <f>H4+HLOOKUP(I$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="1"/>
+        <f>I4+HLOOKUP(J$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="1"/>
+        <f>J4+HLOOKUP(K$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="1"/>
+        <f>K4+HLOOKUP(L$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="1"/>
+        <f>L4+HLOOKUP(M$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="1"/>
+        <f>M4+HLOOKUP(N$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="1"/>
+        <f>N4+HLOOKUP(O$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" si="1"/>
+        <f>O4+HLOOKUP(P$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" si="1"/>
+        <f>P4+HLOOKUP(Q$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" si="1"/>
+        <f>Q4+HLOOKUP(R$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" si="1"/>
+        <f>R4+HLOOKUP(S$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
       <c r="T4" s="2">
-        <f t="shared" si="1"/>
+        <f>S4+HLOOKUP(T$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
       <c r="U4" s="2">
-        <f t="shared" si="1"/>
+        <f>T4+HLOOKUP(U$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
       <c r="V4" s="2">
-        <f t="shared" si="1"/>
+        <f>U4+HLOOKUP(V$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
       <c r="W4" s="2">
-        <f t="shared" si="1"/>
+        <f>V4+HLOOKUP(W$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
       <c r="X4" s="2">
-        <f t="shared" si="1"/>
+        <f>W4+HLOOKUP(X$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
       <c r="Y4" s="2">
-        <f t="shared" si="1"/>
+        <f>X4+HLOOKUP(Y$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
       <c r="Z4" s="2">
-        <f t="shared" si="1"/>
+        <f>Y4+HLOOKUP(Z$3,$B$14:$W$20,$A15,FALSE)</f>
         <v>30</v>
       </c>
     </row>
@@ -1114,99 +1544,99 @@
         <v>30</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C5:R9" si="2">B5+HLOOKUP(C$3,$B$12:$W$18,$A14,FALSE)</f>
+        <f>B5+HLOOKUP(C$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>40</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="2"/>
+        <f>C5+HLOOKUP(D$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>50</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="2"/>
+        <f>D5+HLOOKUP(E$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>60</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="2"/>
+        <f>E5+HLOOKUP(F$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>70</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="2"/>
+        <f>F5+HLOOKUP(G$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>80</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="2"/>
+        <f>G5+HLOOKUP(H$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>90</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="2"/>
+        <f>H5+HLOOKUP(I$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>100</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="2"/>
+        <f>I5+HLOOKUP(J$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>110</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="2"/>
+        <f>J5+HLOOKUP(K$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>120</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="2"/>
+        <f>K5+HLOOKUP(L$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>130</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="2"/>
+        <f>L5+HLOOKUP(M$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>140</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" si="2"/>
+        <f>M5+HLOOKUP(N$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>150</v>
       </c>
       <c r="O5" s="3">
-        <f t="shared" si="2"/>
+        <f>N5+HLOOKUP(O$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>160</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" si="2"/>
+        <f>O5+HLOOKUP(P$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>170</v>
       </c>
       <c r="Q5" s="3">
-        <f t="shared" si="2"/>
+        <f>P5+HLOOKUP(Q$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>180</v>
       </c>
       <c r="R5" s="3">
-        <f t="shared" si="2"/>
+        <f>Q5+HLOOKUP(R$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>190</v>
       </c>
       <c r="S5" s="3">
-        <f t="shared" si="1"/>
+        <f>R5+HLOOKUP(S$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>200</v>
       </c>
       <c r="T5" s="3">
-        <f t="shared" si="1"/>
+        <f>S5+HLOOKUP(T$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>210</v>
       </c>
       <c r="U5" s="3">
-        <f t="shared" si="1"/>
+        <f>T5+HLOOKUP(U$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>220</v>
       </c>
       <c r="V5" s="3">
-        <f t="shared" si="1"/>
+        <f>U5+HLOOKUP(V$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>230</v>
       </c>
       <c r="W5" s="3">
-        <f t="shared" si="1"/>
+        <f>V5+HLOOKUP(W$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>240</v>
       </c>
       <c r="X5" s="3">
-        <f t="shared" si="1"/>
+        <f>W5+HLOOKUP(X$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>250</v>
       </c>
       <c r="Y5" s="3">
-        <f t="shared" si="1"/>
+        <f>X5+HLOOKUP(Y$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>260</v>
       </c>
       <c r="Z5" s="3">
-        <f t="shared" si="1"/>
+        <f>Y5+HLOOKUP(Z$3,$B$14:$W$20,$A16,FALSE)</f>
         <v>270</v>
       </c>
     </row>
@@ -1218,99 +1648,99 @@
         <v>30</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="2"/>
+        <f>B6+HLOOKUP(C$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="1"/>
+        <f>C6+HLOOKUP(D$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E6" s="4">
-        <f t="shared" si="1"/>
+        <f>D6+HLOOKUP(E$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="1"/>
+        <f>E6+HLOOKUP(F$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="1"/>
+        <f>F6+HLOOKUP(G$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="1"/>
+        <f>G6+HLOOKUP(H$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="1"/>
+        <f>H6+HLOOKUP(I$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="1"/>
+        <f>I6+HLOOKUP(J$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="1"/>
+        <f>J6+HLOOKUP(K$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" si="1"/>
+        <f>K6+HLOOKUP(L$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" si="1"/>
+        <f>L6+HLOOKUP(M$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="N6" s="4">
-        <f t="shared" si="1"/>
+        <f>M6+HLOOKUP(N$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" si="1"/>
+        <f>N6+HLOOKUP(O$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="1"/>
+        <f>O6+HLOOKUP(P$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="Q6" s="4">
-        <f t="shared" si="1"/>
+        <f>P6+HLOOKUP(Q$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="R6" s="4">
-        <f t="shared" si="1"/>
+        <f>Q6+HLOOKUP(R$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="S6" s="4">
-        <f t="shared" si="1"/>
+        <f>R6+HLOOKUP(S$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="T6" s="4">
-        <f t="shared" si="1"/>
+        <f>S6+HLOOKUP(T$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="U6" s="4">
-        <f t="shared" si="1"/>
+        <f>T6+HLOOKUP(U$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="V6" s="4">
-        <f t="shared" si="1"/>
+        <f>U6+HLOOKUP(V$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="W6" s="4">
-        <f t="shared" si="1"/>
+        <f>V6+HLOOKUP(W$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="X6" s="4">
-        <f t="shared" si="1"/>
+        <f>W6+HLOOKUP(X$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="Y6" s="4">
-        <f t="shared" si="1"/>
+        <f>X6+HLOOKUP(Y$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
       <c r="Z6" s="4">
-        <f t="shared" si="1"/>
+        <f>Y6+HLOOKUP(Z$3,$B$14:$W$20,$A17,FALSE)</f>
         <v>30</v>
       </c>
     </row>
@@ -1322,99 +1752,99 @@
         <v>30</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" si="2"/>
+        <f>B7+HLOOKUP(C$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="1"/>
+        <f>C7+HLOOKUP(D$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="1"/>
+        <f>D7+HLOOKUP(E$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="1"/>
+        <f>E7+HLOOKUP(F$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="1"/>
+        <f>F7+HLOOKUP(G$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="1"/>
+        <f>G7+HLOOKUP(H$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="1"/>
+        <f>H7+HLOOKUP(I$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="1"/>
+        <f>I7+HLOOKUP(J$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="1"/>
+        <f>J7+HLOOKUP(K$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="1"/>
+        <f>K7+HLOOKUP(L$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
       <c r="M7" s="5">
-        <f t="shared" si="1"/>
+        <f>L7+HLOOKUP(M$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
       <c r="N7" s="5">
-        <f t="shared" si="1"/>
+        <f>M7+HLOOKUP(N$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="1"/>
+        <f>N7+HLOOKUP(O$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" si="1"/>
+        <f>O7+HLOOKUP(P$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
       <c r="Q7" s="5">
-        <f t="shared" si="1"/>
+        <f>P7+HLOOKUP(Q$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
       <c r="R7" s="5">
-        <f t="shared" si="1"/>
+        <f>Q7+HLOOKUP(R$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
       <c r="S7" s="5">
-        <f t="shared" si="1"/>
+        <f>R7+HLOOKUP(S$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
       <c r="T7" s="5">
-        <f t="shared" si="1"/>
+        <f>S7+HLOOKUP(T$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
       <c r="U7" s="5">
-        <f t="shared" si="1"/>
+        <f>T7+HLOOKUP(U$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
       <c r="V7" s="5">
-        <f t="shared" si="1"/>
+        <f>U7+HLOOKUP(V$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
       <c r="W7" s="5">
-        <f t="shared" si="1"/>
+        <f>V7+HLOOKUP(W$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
       <c r="X7" s="5">
-        <f t="shared" si="1"/>
+        <f>W7+HLOOKUP(X$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
       <c r="Y7" s="5">
-        <f t="shared" si="1"/>
+        <f>X7+HLOOKUP(Y$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
       <c r="Z7" s="5">
-        <f t="shared" si="1"/>
+        <f>Y7+HLOOKUP(Z$3,$B$14:$W$20,$A18,FALSE)</f>
         <v>30</v>
       </c>
     </row>
@@ -1426,99 +1856,99 @@
         <v>30</v>
       </c>
       <c r="C8" s="6">
-        <f t="shared" si="2"/>
+        <f>B8+HLOOKUP(C$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="1"/>
+        <f>C8+HLOOKUP(D$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="1"/>
+        <f>D8+HLOOKUP(E$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="1"/>
+        <f>E8+HLOOKUP(F$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="1"/>
+        <f>F8+HLOOKUP(G$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="1"/>
+        <f>G8+HLOOKUP(H$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="1"/>
+        <f>H8+HLOOKUP(I$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="1"/>
+        <f>I8+HLOOKUP(J$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" si="1"/>
+        <f>J8+HLOOKUP(K$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="1"/>
+        <f>K8+HLOOKUP(L$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
       <c r="M8" s="6">
-        <f t="shared" si="1"/>
+        <f>L8+HLOOKUP(M$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" si="1"/>
+        <f>M8+HLOOKUP(N$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" si="1"/>
+        <f>N8+HLOOKUP(O$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" si="1"/>
+        <f>O8+HLOOKUP(P$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
       <c r="Q8" s="6">
-        <f t="shared" si="1"/>
+        <f>P8+HLOOKUP(Q$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
       <c r="R8" s="6">
-        <f t="shared" si="1"/>
+        <f>Q8+HLOOKUP(R$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
       <c r="S8" s="6">
-        <f t="shared" si="1"/>
+        <f>R8+HLOOKUP(S$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
       <c r="T8" s="6">
-        <f t="shared" si="1"/>
+        <f>S8+HLOOKUP(T$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
       <c r="U8" s="6">
-        <f t="shared" si="1"/>
+        <f>T8+HLOOKUP(U$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
       <c r="V8" s="6">
-        <f t="shared" si="1"/>
+        <f>U8+HLOOKUP(V$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
       <c r="W8" s="6">
-        <f t="shared" si="1"/>
+        <f>V8+HLOOKUP(W$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
       <c r="X8" s="6">
-        <f t="shared" si="1"/>
+        <f>W8+HLOOKUP(X$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
       <c r="Y8" s="6">
-        <f t="shared" si="1"/>
+        <f>X8+HLOOKUP(Y$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
       <c r="Z8" s="6">
-        <f t="shared" si="1"/>
+        <f>Y8+HLOOKUP(Z$3,$B$14:$W$20,$A19,FALSE)</f>
         <v>30</v>
       </c>
     </row>
@@ -1530,775 +1960,823 @@
         <v>0</v>
       </c>
       <c r="C9" s="7">
-        <f t="shared" si="2"/>
+        <f>B9+HLOOKUP(C$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" si="1"/>
+        <f>C9+HLOOKUP(D$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>14</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" si="1"/>
+        <f>D9+HLOOKUP(E$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>21</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="1"/>
+        <f>E9+HLOOKUP(F$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>28</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="1"/>
+        <f>F9+HLOOKUP(G$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>35</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="1"/>
+        <f>G9+HLOOKUP(H$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>42</v>
       </c>
       <c r="I9" s="7">
-        <f t="shared" si="1"/>
+        <f>H9+HLOOKUP(I$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>49</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="1"/>
+        <f>I9+HLOOKUP(J$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>56</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" si="1"/>
+        <f>J9+HLOOKUP(K$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>63</v>
       </c>
       <c r="L9" s="7">
-        <f t="shared" si="1"/>
+        <f>K9+HLOOKUP(L$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>70</v>
       </c>
       <c r="M9" s="7">
-        <f t="shared" si="1"/>
+        <f>L9+HLOOKUP(M$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>77</v>
       </c>
       <c r="N9" s="7">
-        <f t="shared" si="1"/>
+        <f>M9+HLOOKUP(N$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>84</v>
       </c>
       <c r="O9" s="7">
-        <f t="shared" si="1"/>
+        <f>N9+HLOOKUP(O$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>91</v>
       </c>
       <c r="P9" s="7">
-        <f t="shared" si="1"/>
+        <f>O9+HLOOKUP(P$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>98</v>
       </c>
       <c r="Q9" s="7">
-        <f t="shared" si="1"/>
+        <f>P9+HLOOKUP(Q$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>105</v>
       </c>
       <c r="R9" s="7">
-        <f t="shared" si="1"/>
+        <f>Q9+HLOOKUP(R$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>112</v>
       </c>
       <c r="S9" s="7">
-        <f t="shared" si="1"/>
+        <f>R9+HLOOKUP(S$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>119</v>
       </c>
       <c r="T9" s="7">
-        <f t="shared" si="1"/>
+        <f>S9+HLOOKUP(T$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>126</v>
       </c>
       <c r="U9" s="7">
-        <f t="shared" si="1"/>
+        <f>T9+HLOOKUP(U$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>133</v>
       </c>
       <c r="V9" s="7">
-        <f t="shared" si="1"/>
+        <f>U9+HLOOKUP(V$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>140</v>
       </c>
       <c r="W9" s="7">
-        <f t="shared" si="1"/>
+        <f>V9+HLOOKUP(W$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>147</v>
       </c>
       <c r="X9" s="7">
-        <f t="shared" si="1"/>
+        <f>W9+HLOOKUP(X$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>154</v>
       </c>
       <c r="Y9" s="7">
-        <f t="shared" si="1"/>
+        <f>X9+HLOOKUP(Y$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>161</v>
       </c>
       <c r="Z9" s="7">
-        <f t="shared" si="1"/>
+        <f>Y9+HLOOKUP(Z$3,$B$14:$W$20,$A20,FALSE)</f>
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+    <row r="10" spans="1:26" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+    </row>
+    <row r="11" spans="1:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="8">
-        <v>2</v>
-      </c>
-      <c r="D11" s="8">
-        <v>3</v>
-      </c>
-      <c r="E11" s="8">
-        <v>4</v>
-      </c>
-      <c r="F11" s="8">
-        <v>5</v>
-      </c>
-      <c r="G11" s="8">
-        <v>6</v>
-      </c>
-      <c r="H11" s="8">
-        <v>7</v>
-      </c>
-      <c r="I11" s="8">
-        <v>8</v>
-      </c>
-      <c r="J11" s="8">
-        <v>9</v>
-      </c>
-      <c r="K11" s="8">
-        <v>10</v>
-      </c>
-      <c r="L11" s="8">
-        <v>11</v>
-      </c>
-      <c r="M11" s="8">
-        <v>12</v>
-      </c>
-      <c r="N11" s="8">
-        <v>13</v>
-      </c>
-      <c r="O11" s="8">
-        <v>14</v>
-      </c>
-      <c r="P11" s="8">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>16</v>
-      </c>
-      <c r="R11" s="8">
-        <v>17</v>
-      </c>
-      <c r="S11" s="8">
-        <v>18</v>
-      </c>
-      <c r="T11" s="8">
-        <v>19</v>
-      </c>
-      <c r="U11" s="8">
-        <v>20</v>
-      </c>
-      <c r="V11" s="8">
-        <v>21</v>
-      </c>
-      <c r="W11" s="8">
-        <v>22</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z11" s="1" t="str">
-        <f>IF(C28,C21,IF(D28,D21,IF(E28,E21,IF(F28,F21,G21))))</f>
-        <v>재력가</v>
-      </c>
+      <c r="C11" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="53"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="50"/>
     </row>
-    <row r="12" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="T12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="U12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="V12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="W12" s="8" t="s">
-        <v>33</v>
-      </c>
+    <row r="12" spans="1:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="58"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="49"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="S12" s="49"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="V12" s="49"/>
+      <c r="W12" s="50"/>
     </row>
     <row r="13" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="59"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="25">
         <v>2</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="D13" s="26">
         <v>3</v>
       </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>3</v>
-      </c>
-      <c r="M13" s="2">
-        <v>5</v>
-      </c>
-      <c r="N13" s="2">
+      <c r="E13" s="27">
+        <v>4</v>
+      </c>
+      <c r="F13" s="25">
+        <v>5</v>
+      </c>
+      <c r="G13" s="26">
+        <v>6</v>
+      </c>
+      <c r="H13" s="27">
         <v>7</v>
       </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2">
-        <v>0</v>
+      <c r="I13" s="25">
+        <v>8</v>
+      </c>
+      <c r="J13" s="26">
+        <v>9</v>
+      </c>
+      <c r="K13" s="27">
+        <v>10</v>
+      </c>
+      <c r="L13" s="25">
+        <v>11</v>
+      </c>
+      <c r="M13" s="26">
+        <v>12</v>
+      </c>
+      <c r="N13" s="27">
+        <v>13</v>
+      </c>
+      <c r="O13" s="25">
+        <v>14</v>
+      </c>
+      <c r="P13" s="26">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="27">
+        <v>16</v>
+      </c>
+      <c r="R13" s="25">
+        <v>17</v>
+      </c>
+      <c r="S13" s="26">
+        <v>18</v>
+      </c>
+      <c r="T13" s="27">
+        <v>19</v>
+      </c>
+      <c r="U13" s="25">
+        <v>20</v>
+      </c>
+      <c r="V13" s="26">
+        <v>21</v>
+      </c>
+      <c r="W13" s="27">
+        <v>22</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z13" s="1" t="str">
+        <f>IF(C30,C23,IF(D30,D23,IF(E30,E23,IF(F30,F23,G23))))</f>
+        <v>재력가</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="3">
-        <v>-5</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-7</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-3</v>
-      </c>
-      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>30</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-5</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-10</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-15</v>
-      </c>
-      <c r="L14" s="3">
-        <v>-5</v>
-      </c>
-      <c r="M14" s="3">
-        <v>-5</v>
-      </c>
-      <c r="N14" s="3">
-        <v>-5</v>
-      </c>
-      <c r="O14" s="3">
-        <v>-5</v>
-      </c>
-      <c r="P14" s="3">
-        <v>-5</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>-5</v>
-      </c>
-      <c r="R14" s="3">
-        <v>-5</v>
-      </c>
-      <c r="S14" s="3">
-        <v>-5</v>
-      </c>
-      <c r="T14" s="3">
-        <v>-5</v>
-      </c>
-      <c r="U14" s="3">
-        <v>-5</v>
-      </c>
-      <c r="V14" s="3">
-        <v>-5</v>
-      </c>
-      <c r="W14" s="3">
-        <v>-5</v>
+      <c r="G14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="U14" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W14" s="29" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>4</v>
-      </c>
-      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="30">
         <v>3</v>
       </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="31">
+        <v>0</v>
+      </c>
+      <c r="F15" s="30">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="31">
+        <v>0</v>
+      </c>
+      <c r="I15" s="30">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="31">
+        <v>0</v>
+      </c>
+      <c r="L15" s="30">
         <v>3</v>
       </c>
-      <c r="J15" s="4">
-        <v>5</v>
-      </c>
-      <c r="K15" s="4">
+      <c r="M15" s="2">
+        <v>5</v>
+      </c>
+      <c r="N15" s="31">
         <v>7</v>
       </c>
-      <c r="L15" s="4">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <v>3</v>
-      </c>
-      <c r="P15" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>7</v>
-      </c>
-      <c r="R15" s="4">
-        <v>0</v>
-      </c>
-      <c r="S15" s="4">
-        <v>0</v>
-      </c>
-      <c r="T15" s="4">
-        <v>0</v>
-      </c>
-      <c r="U15" s="4">
-        <v>0</v>
-      </c>
-      <c r="V15" s="4">
-        <v>0</v>
-      </c>
-      <c r="W15" s="4">
+      <c r="O15" s="30">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="31">
+        <v>0</v>
+      </c>
+      <c r="R15" s="30">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="31">
+        <v>0</v>
+      </c>
+      <c r="U15" s="30">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>5</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
         <v>3</v>
       </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="B16" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="32">
+        <v>-5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-7</v>
+      </c>
+      <c r="E16" s="33">
+        <v>-3</v>
+      </c>
+      <c r="F16" s="32">
+        <v>10</v>
+      </c>
+      <c r="G16" s="3">
         <v>3</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="33">
+        <v>30</v>
+      </c>
+      <c r="I16" s="32">
+        <v>-5</v>
+      </c>
+      <c r="J16" s="3">
         <v>-10</v>
       </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5">
-        <v>0</v>
-      </c>
-      <c r="O16" s="5">
-        <v>0</v>
-      </c>
-      <c r="P16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>0</v>
-      </c>
-      <c r="R16" s="5">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5">
-        <v>0</v>
-      </c>
-      <c r="T16" s="5">
-        <v>0</v>
-      </c>
-      <c r="U16" s="5">
-        <v>0</v>
-      </c>
-      <c r="V16" s="5">
-        <v>0</v>
-      </c>
-      <c r="W16" s="5">
-        <v>0</v>
+      <c r="K16" s="33">
+        <v>-15</v>
+      </c>
+      <c r="L16" s="32">
+        <v>-5</v>
+      </c>
+      <c r="M16" s="3">
+        <v>-5</v>
+      </c>
+      <c r="N16" s="33">
+        <v>-5</v>
+      </c>
+      <c r="O16" s="32">
+        <v>-5</v>
+      </c>
+      <c r="P16" s="3">
+        <v>-5</v>
+      </c>
+      <c r="Q16" s="33">
+        <v>-5</v>
+      </c>
+      <c r="R16" s="32">
+        <v>-5</v>
+      </c>
+      <c r="S16" s="3">
+        <v>-5</v>
+      </c>
+      <c r="T16" s="33">
+        <v>-5</v>
+      </c>
+      <c r="U16" s="32">
+        <v>-5</v>
+      </c>
+      <c r="V16" s="3">
+        <v>-5</v>
+      </c>
+      <c r="W16" s="33">
+        <v>-5</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>6</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
+        <v>4</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0</v>
-      </c>
-      <c r="M17" s="6">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6">
-        <v>0</v>
-      </c>
-      <c r="O17" s="6">
-        <v>0</v>
-      </c>
-      <c r="P17" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>0</v>
-      </c>
-      <c r="R17" s="6">
+      <c r="C17" s="34">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="35">
+        <v>0</v>
+      </c>
+      <c r="F17" s="34">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="35">
+        <v>0</v>
+      </c>
+      <c r="I17" s="34">
         <v>3</v>
       </c>
-      <c r="S17" s="6">
-        <v>5</v>
-      </c>
-      <c r="T17" s="6">
+      <c r="J17" s="4">
+        <v>5</v>
+      </c>
+      <c r="K17" s="35">
         <v>7</v>
       </c>
-      <c r="U17" s="6">
-        <v>0</v>
-      </c>
-      <c r="V17" s="6">
-        <v>0</v>
-      </c>
-      <c r="W17" s="6">
+      <c r="L17" s="34">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="35">
+        <v>0</v>
+      </c>
+      <c r="O17" s="34">
+        <v>3</v>
+      </c>
+      <c r="P17" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="35">
+        <v>7</v>
+      </c>
+      <c r="R17" s="34">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17" s="35">
+        <v>0</v>
+      </c>
+      <c r="U17" s="34">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
+        <v>5</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="36">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="37">
+        <v>3</v>
+      </c>
+      <c r="F18" s="36">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>3</v>
+      </c>
+      <c r="H18" s="37">
+        <v>-10</v>
+      </c>
+      <c r="I18" s="36">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="37">
+        <v>0</v>
+      </c>
+      <c r="L18" s="36">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="37">
+        <v>0</v>
+      </c>
+      <c r="O18" s="36">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="37">
+        <v>0</v>
+      </c>
+      <c r="R18" s="36">
+        <v>0</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0</v>
+      </c>
+      <c r="T18" s="37">
+        <v>0</v>
+      </c>
+      <c r="U18" s="36">
+        <v>0</v>
+      </c>
+      <c r="V18" s="5">
+        <v>0</v>
+      </c>
+      <c r="W18" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>6</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="38">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>3</v>
+      </c>
+      <c r="E19" s="39">
+        <v>0</v>
+      </c>
+      <c r="F19" s="38">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="39">
+        <v>0</v>
+      </c>
+      <c r="I19" s="38">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="39">
+        <v>0</v>
+      </c>
+      <c r="L19" s="38">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="39">
+        <v>0</v>
+      </c>
+      <c r="O19" s="38">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="39">
+        <v>0</v>
+      </c>
+      <c r="R19" s="38">
+        <v>3</v>
+      </c>
+      <c r="S19" s="6">
+        <v>5</v>
+      </c>
+      <c r="T19" s="39">
         <v>7</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="U19" s="38">
+        <v>0</v>
+      </c>
+      <c r="V19" s="6">
+        <v>0</v>
+      </c>
+      <c r="W19" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>7</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="7">
-        <v>5</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="C20" s="40">
+        <v>5</v>
+      </c>
+      <c r="D20" s="41">
         <v>2</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E20" s="42">
         <v>3</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F20" s="40">
         <v>7</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G20" s="41">
         <v>3</v>
       </c>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7">
+      <c r="H20" s="42">
+        <v>5</v>
+      </c>
+      <c r="I20" s="40">
         <v>2</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J20" s="41">
         <v>2</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K20" s="42">
         <v>2</v>
       </c>
-      <c r="L18" s="7">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>0</v>
-      </c>
-      <c r="R18" s="7">
-        <v>0</v>
-      </c>
-      <c r="S18" s="7">
-        <v>0</v>
-      </c>
-      <c r="T18" s="7">
-        <v>0</v>
-      </c>
-      <c r="U18" s="7">
+      <c r="L20" s="40">
+        <v>0</v>
+      </c>
+      <c r="M20" s="41">
+        <v>0</v>
+      </c>
+      <c r="N20" s="42">
+        <v>0</v>
+      </c>
+      <c r="O20" s="40">
+        <v>0</v>
+      </c>
+      <c r="P20" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="42">
+        <v>0</v>
+      </c>
+      <c r="R20" s="40">
+        <v>0</v>
+      </c>
+      <c r="S20" s="41">
+        <v>0</v>
+      </c>
+      <c r="T20" s="42">
+        <v>0</v>
+      </c>
+      <c r="U20" s="40">
         <v>-3</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V20" s="41">
         <v>-5</v>
       </c>
-      <c r="W18" s="7">
+      <c r="W20" s="42">
         <v>-7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="8">
-        <v>1</v>
-      </c>
-      <c r="C20" s="8">
-        <v>2</v>
-      </c>
-      <c r="D20" s="8">
-        <v>3</v>
-      </c>
-      <c r="E20" s="8">
-        <v>4</v>
-      </c>
-      <c r="F20" s="8">
-        <v>5</v>
-      </c>
-      <c r="G20" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>1</v>
-      </c>
-      <c r="B21" s="8">
-        <v>0</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8">
         <v>2</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="8">
-        <v>45</v>
-      </c>
       <c r="D22" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F22" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G22" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
-        <v>3</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0</v>
-      </c>
-      <c r="D23" s="8">
-        <v>50</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" s="8">
         <v>45</v>
@@ -2318,22 +2796,22 @@
     </row>
     <row r="25" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" s="8">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D25" s="8">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E25" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F25" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G25" s="8">
         <v>0</v>
@@ -2341,10 +2819,10 @@
     </row>
     <row r="26" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26" s="8">
         <v>45</v>
@@ -2353,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="8">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F26" s="8">
         <v>0</v>
@@ -2364,58 +2842,114 @@
     </row>
     <row r="27" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="8">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D27" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E27" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F27" s="8">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G27" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8">
+        <v>6</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="8">
+        <v>45</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
+        <v>40</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>7</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
+        <v>60</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="8" t="b">
-        <f>AND($Z$4&gt;C$22,$Z$5&gt;C$23,$Z$6&gt;C$24,$Z$7&gt;C$25,$Z$8&gt;C$26,$Z$9&gt;C$27)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="8" t="b">
-        <f t="shared" ref="D28:G28" si="3">AND($Z$4&gt;D$22,$Z$5&gt;D$23,$Z$6&gt;D$24,$Z$7&gt;D$25,$Z$8&gt;D$26,$Z$9&gt;D$27)</f>
+      <c r="B30" s="17"/>
+      <c r="C30" s="8" t="b">
+        <f>AND($Z$4&gt;C$24,$Z$5&gt;C$25,$Z$6&gt;C$26,$Z$7&gt;C$27,$Z$8&gt;C$28,$Z$9&gt;C$29)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="8" t="b">
+        <f>AND($Z$4&gt;D$24,$Z$5&gt;D$25,$Z$6&gt;D$26,$Z$7&gt;D$27,$Z$8&gt;D$28,$Z$9&gt;D$29)</f>
         <v>1</v>
       </c>
-      <c r="E28" s="8" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="8" t="b">
-        <f t="shared" si="3"/>
+      <c r="E30" s="8" t="b">
+        <f>AND($Z$4&gt;E$24,$Z$5&gt;E$25,$Z$6&gt;E$26,$Z$7&gt;E$27,$Z$8&gt;E$28,$Z$9&gt;E$29)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="8" t="b">
+        <f>AND($Z$4&gt;F$24,$Z$5&gt;F$25,$Z$6&gt;F$26,$Z$7&gt;F$27,$Z$8&gt;F$28,$Z$9&gt;F$29)</f>
         <v>1</v>
       </c>
-      <c r="G28" s="8" t="b">
-        <f t="shared" si="3"/>
+      <c r="G30" s="8" t="b">
+        <f>AND($Z$4&gt;G$24,$Z$5&gt;G$25,$Z$6&gt;G$26,$Z$7&gt;G$27,$Z$8&gt;G$28,$Z$9&gt;G$29)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A28:B28"/>
+  <mergeCells count="13">
+    <mergeCell ref="L11:W11"/>
+    <mergeCell ref="C11:E12"/>
+    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/인생_시뮬레이터.xlsx
+++ b/인생_시뮬레이터.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G\Documents\GitHub\Insaeng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G\Desktop\Insaeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>턴</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,10 @@
   </si>
   <si>
     <t>잡화점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,7 +698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,6 +747,108 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -752,127 +858,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1161,18 +1168,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1252,291 +1257,291 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="13">
-        <v>5</v>
+      <c r="B2" s="50"/>
+      <c r="C2" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="D2" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J2" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L2" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M2" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N2" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O2" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P2" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R2" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S2" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T2" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U2" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V2" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W2" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X2" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y2" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z2" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="12" t="str">
-        <f>HLOOKUP(C2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" ref="C3:Z3" ca="1" si="0">HLOOKUP(C2,$B$13:$W$14,2,FALSE)</f>
+        <v>미술수업</v>
       </c>
       <c r="D3" s="12" t="str">
-        <f>HLOOKUP(D2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" si="0"/>
+        <v>미술수업</v>
       </c>
       <c r="E3" s="12" t="str">
-        <f>HLOOKUP(E2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" si="0"/>
+        <v>미술수업</v>
       </c>
       <c r="F3" s="12" t="str">
-        <f>HLOOKUP(F2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" si="0"/>
+        <v>미술수업</v>
       </c>
       <c r="G3" s="12" t="str">
-        <f>HLOOKUP(G2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" si="0"/>
+        <v>미술수업</v>
       </c>
       <c r="H3" s="12" t="str">
-        <f>HLOOKUP(H2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" si="0"/>
+        <v>미술수업</v>
       </c>
       <c r="I3" s="12" t="str">
-        <f>HLOOKUP(I2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" si="0"/>
+        <v>미술수업</v>
       </c>
       <c r="J3" s="12" t="str">
-        <f>HLOOKUP(J2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" si="0"/>
+        <v>미술수업</v>
       </c>
       <c r="K3" s="12" t="str">
-        <f>HLOOKUP(K2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" si="0"/>
+        <v>미술수업</v>
       </c>
       <c r="L3" s="12" t="str">
-        <f>HLOOKUP(L2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" si="0"/>
+        <v>미술수업</v>
       </c>
       <c r="M3" s="12" t="str">
-        <f>HLOOKUP(M2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" si="0"/>
+        <v>미술수업</v>
       </c>
       <c r="N3" s="12" t="str">
-        <f>HLOOKUP(N2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" si="0"/>
+        <v>미술수업</v>
       </c>
       <c r="O3" s="12" t="str">
-        <f>HLOOKUP(O2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" si="0"/>
+        <v>미술수업</v>
       </c>
       <c r="P3" s="12" t="str">
-        <f>HLOOKUP(P2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" si="0"/>
+        <v>미술수업</v>
       </c>
       <c r="Q3" s="12" t="str">
-        <f>HLOOKUP(Q2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" si="0"/>
+        <v>미술수업</v>
       </c>
       <c r="R3" s="12" t="str">
-        <f>HLOOKUP(R2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" si="0"/>
+        <v>미술수업</v>
       </c>
       <c r="S3" s="12" t="str">
-        <f>HLOOKUP(S2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" si="0"/>
+        <v>미술수업</v>
       </c>
       <c r="T3" s="12" t="str">
-        <f>HLOOKUP(T2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" si="0"/>
+        <v>미술수업</v>
       </c>
       <c r="U3" s="12" t="str">
-        <f>HLOOKUP(U2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" si="0"/>
+        <v>미술수업</v>
       </c>
       <c r="V3" s="12" t="str">
-        <f>HLOOKUP(V2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" si="0"/>
+        <v>미술수업</v>
       </c>
       <c r="W3" s="12" t="str">
-        <f>HLOOKUP(W2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" si="0"/>
+        <v>미술수업</v>
       </c>
       <c r="X3" s="12" t="str">
-        <f>HLOOKUP(X2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" si="0"/>
+        <v>미술수업</v>
       </c>
       <c r="Y3" s="12" t="str">
-        <f>HLOOKUP(Y2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" si="0"/>
+        <v>미술수업</v>
       </c>
       <c r="Z3" s="12" t="str">
-        <f>HLOOKUP(Z2,$B$13:$W$14,2,FALSE)</f>
-        <v>농장</v>
+        <f t="shared" si="0"/>
+        <v>미술수업</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
-        <f>B4+HLOOKUP(C$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f ca="1">IF(IF(B4+HLOOKUP(C$3,$B$14:$W$20,$A15,FALSE)&gt;100,100,B4+HLOOKUP(C$3,$B$14:$W$20,$A15,FALSE))&lt;0,0,IF(B4+HLOOKUP(C$3,$B$14:$W$20,$A15,FALSE)&gt;100,100,B4+HLOOKUP(C$3,$B$14:$W$20,$A15,FALSE)))</f>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
-        <f>C4+HLOOKUP(D$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ref="D4:Z9" ca="1" si="1">IF(IF(C4+HLOOKUP(D$3,$B$14:$W$20,$A15,FALSE)&gt;100,100,C4+HLOOKUP(D$3,$B$14:$W$20,$A15,FALSE))&lt;0,0,IF(C4+HLOOKUP(D$3,$B$14:$W$20,$A15,FALSE)&gt;100,100,C4+HLOOKUP(D$3,$B$14:$W$20,$A15,FALSE)))</f>
+        <v>16</v>
       </c>
       <c r="E4" s="2">
-        <f>D4+HLOOKUP(E$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
       </c>
       <c r="F4" s="2">
-        <f>E4+HLOOKUP(F$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
       </c>
       <c r="G4" s="2">
-        <f>F4+HLOOKUP(G$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
       </c>
       <c r="H4" s="2">
-        <f>G4+HLOOKUP(H$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
       </c>
       <c r="I4" s="2">
-        <f>H4+HLOOKUP(I$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>31</v>
       </c>
       <c r="J4" s="2">
-        <f>I4+HLOOKUP(J$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
       </c>
       <c r="K4" s="2">
-        <f>J4+HLOOKUP(K$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
       </c>
       <c r="L4" s="2">
-        <f>K4+HLOOKUP(L$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
       </c>
       <c r="M4" s="2">
-        <f>L4+HLOOKUP(M$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
       </c>
       <c r="N4" s="2">
-        <f>M4+HLOOKUP(N$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
       </c>
       <c r="O4" s="2">
-        <f>N4+HLOOKUP(O$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
       </c>
       <c r="P4" s="2">
-        <f>O4+HLOOKUP(P$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
       </c>
       <c r="Q4" s="2">
-        <f>P4+HLOOKUP(Q$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
       </c>
       <c r="R4" s="2">
-        <f>Q4+HLOOKUP(R$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
       </c>
       <c r="S4" s="2">
-        <f>R4+HLOOKUP(S$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
       </c>
       <c r="T4" s="2">
-        <f>S4+HLOOKUP(T$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
       </c>
       <c r="U4" s="2">
-        <f>T4+HLOOKUP(U$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
       </c>
       <c r="V4" s="2">
-        <f>U4+HLOOKUP(V$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
       </c>
       <c r="W4" s="2">
-        <f>V4+HLOOKUP(W$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
       </c>
       <c r="X4" s="2">
-        <f>W4+HLOOKUP(X$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
       </c>
       <c r="Y4" s="2">
-        <f>X4+HLOOKUP(Y$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
       </c>
       <c r="Z4" s="2">
-        <f>Y4+HLOOKUP(Z$3,$B$14:$W$20,$A15,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1544,415 +1549,417 @@
         <v>30</v>
       </c>
       <c r="C5" s="3">
-        <f>B5+HLOOKUP(C$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>40</v>
+        <f t="shared" ref="C5:R9" ca="1" si="2">IF(IF(B5+HLOOKUP(C$3,$B$14:$W$20,$A16,FALSE)&gt;100,100,B5+HLOOKUP(C$3,$B$14:$W$20,$A16,FALSE))&lt;0,0,IF(B5+HLOOKUP(C$3,$B$14:$W$20,$A16,FALSE)&gt;100,100,B5+HLOOKUP(C$3,$B$14:$W$20,$A16,FALSE)))</f>
+        <v>20</v>
       </c>
       <c r="D5" s="3">
-        <f>C5+HLOOKUP(D$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>50</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
       <c r="E5" s="3">
-        <f>D5+HLOOKUP(E$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>60</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
-        <f>E5+HLOOKUP(F$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>70</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
-        <f>F5+HLOOKUP(G$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>80</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
-        <f>G5+HLOOKUP(H$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>90</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="I5" s="3">
-        <f>H5+HLOOKUP(I$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>100</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="J5" s="3">
-        <f>I5+HLOOKUP(J$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>110</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="K5" s="3">
-        <f>J5+HLOOKUP(K$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>120</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="L5" s="3">
-        <f>K5+HLOOKUP(L$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>130</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="M5" s="3">
-        <f>L5+HLOOKUP(M$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>140</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="N5" s="3">
-        <f>M5+HLOOKUP(N$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>150</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="O5" s="3">
-        <f>N5+HLOOKUP(O$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>160</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="P5" s="3">
-        <f>O5+HLOOKUP(P$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>170</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="Q5" s="3">
-        <f>P5+HLOOKUP(Q$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>180</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="R5" s="3">
-        <f>Q5+HLOOKUP(R$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>190</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="S5" s="3">
-        <f>R5+HLOOKUP(S$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>200</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="T5" s="3">
-        <f>S5+HLOOKUP(T$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>210</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="U5" s="3">
-        <f>T5+HLOOKUP(U$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>220</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="V5" s="3">
-        <f>U5+HLOOKUP(V$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>230</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="W5" s="3">
-        <f>V5+HLOOKUP(W$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>240</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="X5" s="3">
-        <f>W5+HLOOKUP(X$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>250</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="Y5" s="3">
-        <f>X5+HLOOKUP(Y$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>260</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="Z5" s="3">
-        <f>Y5+HLOOKUP(Z$3,$B$14:$W$20,$A16,FALSE)</f>
-        <v>270</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4">
-        <f>B6+HLOOKUP(C$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
       <c r="D6" s="4">
-        <f>C6+HLOOKUP(D$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="E6" s="4">
-        <f>D6+HLOOKUP(E$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="F6" s="4">
-        <f>E6+HLOOKUP(F$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="G6" s="4">
-        <f>F6+HLOOKUP(G$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="H6" s="4">
-        <f>G6+HLOOKUP(H$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="I6" s="4">
-        <f>H6+HLOOKUP(I$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="J6" s="4">
-        <f>I6+HLOOKUP(J$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="K6" s="4">
-        <f>J6+HLOOKUP(K$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="L6" s="4">
-        <f>K6+HLOOKUP(L$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="M6" s="4">
-        <f>L6+HLOOKUP(M$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="N6" s="4">
-        <f>M6+HLOOKUP(N$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="O6" s="4">
-        <f>N6+HLOOKUP(O$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="P6" s="4">
-        <f>O6+HLOOKUP(P$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="Q6" s="4">
-        <f>P6+HLOOKUP(Q$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="R6" s="4">
-        <f>Q6+HLOOKUP(R$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="S6" s="4">
-        <f>R6+HLOOKUP(S$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="T6" s="4">
-        <f>S6+HLOOKUP(T$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="U6" s="4">
-        <f>T6+HLOOKUP(U$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="V6" s="4">
-        <f>U6+HLOOKUP(V$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="W6" s="4">
-        <f>V6+HLOOKUP(W$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="X6" s="4">
-        <f>W6+HLOOKUP(X$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="Y6" s="4">
-        <f>X6+HLOOKUP(Y$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="Z6" s="4">
-        <f>Y6+HLOOKUP(Z$3,$B$14:$W$20,$A17,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5">
-        <f>B7+HLOOKUP(C$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
       <c r="D7" s="5">
-        <f>C7+HLOOKUP(D$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="E7" s="5">
-        <f>D7+HLOOKUP(E$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="F7" s="5">
-        <f>E7+HLOOKUP(F$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="G7" s="5">
-        <f>F7+HLOOKUP(G$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="H7" s="5">
-        <f>G7+HLOOKUP(H$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="I7" s="5">
-        <f>H7+HLOOKUP(I$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="J7" s="5">
-        <f>I7+HLOOKUP(J$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="K7" s="5">
-        <f>J7+HLOOKUP(K$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="L7" s="5">
-        <f>K7+HLOOKUP(L$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="M7" s="5">
-        <f>L7+HLOOKUP(M$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="N7" s="5">
-        <f>M7+HLOOKUP(N$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="O7" s="5">
-        <f>N7+HLOOKUP(O$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="P7" s="5">
-        <f>O7+HLOOKUP(P$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="Q7" s="5">
-        <f>P7+HLOOKUP(Q$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="R7" s="5">
-        <f>Q7+HLOOKUP(R$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="S7" s="5">
-        <f>R7+HLOOKUP(S$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="T7" s="5">
-        <f>S7+HLOOKUP(T$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="U7" s="5">
-        <f>T7+HLOOKUP(U$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="V7" s="5">
-        <f>U7+HLOOKUP(V$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="W7" s="5">
-        <f>V7+HLOOKUP(W$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="X7" s="5">
-        <f>W7+HLOOKUP(X$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="Y7" s="5">
-        <f>X7+HLOOKUP(Y$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="Z7" s="5">
-        <f>Y7+HLOOKUP(Z$3,$B$14:$W$20,$A18,FALSE)</f>
-        <v>30</v>
-      </c>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AA7" s="60"/>
     </row>
-    <row r="8" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="6">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>30</v>
       </c>
-      <c r="C8" s="6">
-        <f>B8+HLOOKUP(C$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="D8" s="6">
-        <f>C8+HLOOKUP(D$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="E8" s="6">
-        <f>D8+HLOOKUP(E$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="F8" s="6">
-        <f>E8+HLOOKUP(F$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
-      </c>
       <c r="G8" s="6">
-        <f>F8+HLOOKUP(G$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
       </c>
       <c r="H8" s="6">
-        <f>G8+HLOOKUP(H$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
       </c>
       <c r="I8" s="6">
-        <f>H8+HLOOKUP(I$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
       </c>
       <c r="J8" s="6">
-        <f>I8+HLOOKUP(J$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
       </c>
       <c r="K8" s="6">
-        <f>J8+HLOOKUP(K$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
       </c>
       <c r="L8" s="6">
-        <f>K8+HLOOKUP(L$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
       </c>
       <c r="M8" s="6">
-        <f>L8+HLOOKUP(M$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
       </c>
       <c r="N8" s="6">
-        <f>M8+HLOOKUP(N$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
       </c>
       <c r="O8" s="6">
-        <f>N8+HLOOKUP(O$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
       </c>
       <c r="P8" s="6">
-        <f>O8+HLOOKUP(P$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
       </c>
       <c r="Q8" s="6">
-        <f>P8+HLOOKUP(Q$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
       </c>
       <c r="R8" s="6">
-        <f>Q8+HLOOKUP(R$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
       </c>
       <c r="S8" s="6">
-        <f>R8+HLOOKUP(S$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
       </c>
       <c r="T8" s="6">
-        <f>S8+HLOOKUP(T$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
       </c>
       <c r="U8" s="6">
-        <f>T8+HLOOKUP(U$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
       </c>
       <c r="V8" s="6">
-        <f>U8+HLOOKUP(V$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
       </c>
       <c r="W8" s="6">
-        <f>V8+HLOOKUP(W$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
       </c>
       <c r="X8" s="6">
-        <f>W8+HLOOKUP(X$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
       </c>
       <c r="Y8" s="6">
-        <f>X8+HLOOKUP(Y$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
       </c>
       <c r="Z8" s="6">
-        <f>Y8+HLOOKUP(Z$3,$B$14:$W$20,$A19,FALSE)</f>
-        <v>30</v>
-      </c>
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="AA8" s="60"/>
     </row>
-    <row r="9" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -1960,555 +1967,562 @@
         <v>0</v>
       </c>
       <c r="C9" s="7">
-        <f>B9+HLOOKUP(C$3,$B$14:$W$20,$A20,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="O9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="P9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="Q9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="R9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="S9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="T9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="U9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="W9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="X9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="Y9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="Z9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="AA9" s="60"/>
+    </row>
+    <row r="10" spans="1:27" s="40" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="60"/>
+    </row>
+    <row r="11" spans="1:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="45"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="43"/>
+      <c r="AA11" s="60"/>
+    </row>
+    <row r="12" spans="1:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="42"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="S12" s="42"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="V12" s="42"/>
+      <c r="W12" s="43"/>
+      <c r="AA12" s="60"/>
+    </row>
+    <row r="13" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="22">
+        <v>2</v>
+      </c>
+      <c r="D13" s="23">
+        <v>3</v>
+      </c>
+      <c r="E13" s="24">
+        <v>4</v>
+      </c>
+      <c r="F13" s="22">
+        <v>5</v>
+      </c>
+      <c r="G13" s="23">
+        <v>6</v>
+      </c>
+      <c r="H13" s="24">
         <v>7</v>
       </c>
-      <c r="D9" s="7">
-        <f>C9+HLOOKUP(D$3,$B$14:$W$20,$A20,FALSE)</f>
+      <c r="I13" s="22">
+        <v>8</v>
+      </c>
+      <c r="J13" s="23">
+        <v>9</v>
+      </c>
+      <c r="K13" s="24">
+        <v>10</v>
+      </c>
+      <c r="L13" s="22">
+        <v>11</v>
+      </c>
+      <c r="M13" s="23">
+        <v>12</v>
+      </c>
+      <c r="N13" s="24">
+        <v>13</v>
+      </c>
+      <c r="O13" s="22">
         <v>14</v>
       </c>
-      <c r="E9" s="7">
-        <f>D9+HLOOKUP(E$3,$B$14:$W$20,$A20,FALSE)</f>
+      <c r="P13" s="23">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="24">
+        <v>16</v>
+      </c>
+      <c r="R13" s="22">
+        <v>17</v>
+      </c>
+      <c r="S13" s="23">
+        <v>18</v>
+      </c>
+      <c r="T13" s="24">
+        <v>19</v>
+      </c>
+      <c r="U13" s="22">
+        <v>20</v>
+      </c>
+      <c r="V13" s="23">
         <v>21</v>
       </c>
-      <c r="F9" s="7">
-        <f>E9+HLOOKUP(F$3,$B$14:$W$20,$A20,FALSE)</f>
-        <v>28</v>
-      </c>
-      <c r="G9" s="7">
-        <f>F9+HLOOKUP(G$3,$B$14:$W$20,$A20,FALSE)</f>
-        <v>35</v>
-      </c>
-      <c r="H9" s="7">
-        <f>G9+HLOOKUP(H$3,$B$14:$W$20,$A20,FALSE)</f>
-        <v>42</v>
-      </c>
-      <c r="I9" s="7">
-        <f>H9+HLOOKUP(I$3,$B$14:$W$20,$A20,FALSE)</f>
-        <v>49</v>
-      </c>
-      <c r="J9" s="7">
-        <f>I9+HLOOKUP(J$3,$B$14:$W$20,$A20,FALSE)</f>
-        <v>56</v>
-      </c>
-      <c r="K9" s="7">
-        <f>J9+HLOOKUP(K$3,$B$14:$W$20,$A20,FALSE)</f>
-        <v>63</v>
-      </c>
-      <c r="L9" s="7">
-        <f>K9+HLOOKUP(L$3,$B$14:$W$20,$A20,FALSE)</f>
-        <v>70</v>
-      </c>
-      <c r="M9" s="7">
-        <f>L9+HLOOKUP(M$3,$B$14:$W$20,$A20,FALSE)</f>
-        <v>77</v>
-      </c>
-      <c r="N9" s="7">
-        <f>M9+HLOOKUP(N$3,$B$14:$W$20,$A20,FALSE)</f>
-        <v>84</v>
-      </c>
-      <c r="O9" s="7">
-        <f>N9+HLOOKUP(O$3,$B$14:$W$20,$A20,FALSE)</f>
-        <v>91</v>
-      </c>
-      <c r="P9" s="7">
-        <f>O9+HLOOKUP(P$3,$B$14:$W$20,$A20,FALSE)</f>
-        <v>98</v>
-      </c>
-      <c r="Q9" s="7">
-        <f>P9+HLOOKUP(Q$3,$B$14:$W$20,$A20,FALSE)</f>
-        <v>105</v>
-      </c>
-      <c r="R9" s="7">
-        <f>Q9+HLOOKUP(R$3,$B$14:$W$20,$A20,FALSE)</f>
-        <v>112</v>
-      </c>
-      <c r="S9" s="7">
-        <f>R9+HLOOKUP(S$3,$B$14:$W$20,$A20,FALSE)</f>
-        <v>119</v>
-      </c>
-      <c r="T9" s="7">
-        <f>S9+HLOOKUP(T$3,$B$14:$W$20,$A20,FALSE)</f>
-        <v>126</v>
-      </c>
-      <c r="U9" s="7">
-        <f>T9+HLOOKUP(U$3,$B$14:$W$20,$A20,FALSE)</f>
-        <v>133</v>
-      </c>
-      <c r="V9" s="7">
-        <f>U9+HLOOKUP(V$3,$B$14:$W$20,$A20,FALSE)</f>
-        <v>140</v>
-      </c>
-      <c r="W9" s="7">
-        <f>V9+HLOOKUP(W$3,$B$14:$W$20,$A20,FALSE)</f>
-        <v>147</v>
-      </c>
-      <c r="X9" s="7">
-        <f>W9+HLOOKUP(X$3,$B$14:$W$20,$A20,FALSE)</f>
-        <v>154</v>
-      </c>
-      <c r="Y9" s="7">
-        <f>X9+HLOOKUP(Y$3,$B$14:$W$20,$A20,FALSE)</f>
-        <v>161</v>
-      </c>
-      <c r="Z9" s="7">
-        <f>Y9+HLOOKUP(Z$3,$B$14:$W$20,$A20,FALSE)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-    </row>
-    <row r="11" spans="1:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="50"/>
-    </row>
-    <row r="12" spans="1:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="58"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="49"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="S12" s="49"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="V12" s="49"/>
-      <c r="W12" s="50"/>
-    </row>
-    <row r="13" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="25">
-        <v>2</v>
-      </c>
-      <c r="D13" s="26">
-        <v>3</v>
-      </c>
-      <c r="E13" s="27">
-        <v>4</v>
-      </c>
-      <c r="F13" s="25">
-        <v>5</v>
-      </c>
-      <c r="G13" s="26">
-        <v>6</v>
-      </c>
-      <c r="H13" s="27">
-        <v>7</v>
-      </c>
-      <c r="I13" s="25">
-        <v>8</v>
-      </c>
-      <c r="J13" s="26">
-        <v>9</v>
-      </c>
-      <c r="K13" s="27">
-        <v>10</v>
-      </c>
-      <c r="L13" s="25">
-        <v>11</v>
-      </c>
-      <c r="M13" s="26">
-        <v>12</v>
-      </c>
-      <c r="N13" s="27">
-        <v>13</v>
-      </c>
-      <c r="O13" s="25">
-        <v>14</v>
-      </c>
-      <c r="P13" s="26">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="27">
-        <v>16</v>
-      </c>
-      <c r="R13" s="25">
-        <v>17</v>
-      </c>
-      <c r="S13" s="26">
-        <v>18</v>
-      </c>
-      <c r="T13" s="27">
-        <v>19</v>
-      </c>
-      <c r="U13" s="25">
-        <v>20</v>
-      </c>
-      <c r="V13" s="26">
-        <v>21</v>
-      </c>
-      <c r="W13" s="27">
+      <c r="W13" s="24">
         <v>22</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Z13" s="1" t="str">
-        <f>IF(C30,C23,IF(D30,D23,IF(E30,E23,IF(F30,F23,G23))))</f>
-        <v>재력가</v>
-      </c>
+        <f ca="1">IF(C30,C23,IF(D30,D23,IF(E30,E23,IF(F30,F23,G23))))</f>
+        <v>돼농주</v>
+      </c>
+      <c r="AA13" s="60"/>
     </row>
-    <row r="14" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>1</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="25" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="25" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="28" t="s">
+      <c r="L14" s="25" t="s">
         <v>23</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="29" t="s">
+      <c r="N14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="O14" s="28" t="s">
+      <c r="O14" s="25" t="s">
         <v>25</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Q14" s="29" t="s">
+      <c r="Q14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="28" t="s">
+      <c r="R14" s="25" t="s">
         <v>28</v>
       </c>
       <c r="S14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T14" s="29" t="s">
+      <c r="T14" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="U14" s="28" t="s">
+      <c r="U14" s="25" t="s">
         <v>31</v>
       </c>
       <c r="V14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="W14" s="29" t="s">
+      <c r="W14" s="26" t="s">
         <v>33</v>
       </c>
+      <c r="AA14" s="60"/>
     </row>
-    <row r="15" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>2</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="30">
-        <v>3</v>
+      <c r="C15" s="27">
+        <v>5</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="31">
-        <v>0</v>
-      </c>
-      <c r="F15" s="30">
+        <v>3</v>
+      </c>
+      <c r="E15" s="28">
+        <v>3</v>
+      </c>
+      <c r="F15" s="27">
         <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
-      <c r="H15" s="31">
-        <v>0</v>
-      </c>
-      <c r="I15" s="30">
+      <c r="H15" s="28">
+        <v>0</v>
+      </c>
+      <c r="I15" s="27">
         <v>0</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
       </c>
-      <c r="K15" s="31">
-        <v>0</v>
-      </c>
-      <c r="L15" s="30">
-        <v>3</v>
+      <c r="K15" s="28">
+        <v>0</v>
+      </c>
+      <c r="L15" s="27">
+        <v>5</v>
       </c>
       <c r="M15" s="2">
-        <v>5</v>
-      </c>
-      <c r="N15" s="31">
         <v>7</v>
       </c>
-      <c r="O15" s="30">
+      <c r="N15" s="28">
+        <v>10</v>
+      </c>
+      <c r="O15" s="27">
         <v>0</v>
       </c>
       <c r="P15" s="2">
         <v>0</v>
       </c>
-      <c r="Q15" s="31">
-        <v>0</v>
-      </c>
-      <c r="R15" s="30">
+      <c r="Q15" s="28">
+        <v>0</v>
+      </c>
+      <c r="R15" s="27">
         <v>0</v>
       </c>
       <c r="S15" s="2">
         <v>0</v>
       </c>
-      <c r="T15" s="31">
-        <v>0</v>
-      </c>
-      <c r="U15" s="30">
+      <c r="T15" s="28">
+        <v>0</v>
+      </c>
+      <c r="U15" s="27">
         <v>0</v>
       </c>
       <c r="V15" s="2">
         <v>0</v>
       </c>
-      <c r="W15" s="31">
-        <v>0</v>
-      </c>
+      <c r="W15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="60"/>
     </row>
-    <row r="16" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>3</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="32">
-        <v>-5</v>
+      <c r="C16" s="29">
+        <v>-7</v>
       </c>
       <c r="D16" s="3">
-        <v>-7</v>
-      </c>
-      <c r="E16" s="33">
+        <v>-10</v>
+      </c>
+      <c r="E16" s="30">
         <v>-3</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="29">
         <v>10</v>
       </c>
       <c r="G16" s="3">
         <v>3</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="30">
         <v>30</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="29">
         <v>-5</v>
       </c>
       <c r="J16" s="3">
         <v>-10</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="30">
         <v>-15</v>
       </c>
-      <c r="L16" s="32">
-        <v>-5</v>
+      <c r="L16" s="29">
+        <v>-10</v>
       </c>
       <c r="M16" s="3">
-        <v>-5</v>
-      </c>
-      <c r="N16" s="33">
-        <v>-5</v>
-      </c>
-      <c r="O16" s="32">
-        <v>-5</v>
+        <v>-10</v>
+      </c>
+      <c r="N16" s="30">
+        <v>-10</v>
+      </c>
+      <c r="O16" s="29">
+        <v>-10</v>
       </c>
       <c r="P16" s="3">
-        <v>-5</v>
-      </c>
-      <c r="Q16" s="33">
-        <v>-5</v>
-      </c>
-      <c r="R16" s="32">
-        <v>-5</v>
+        <v>-10</v>
+      </c>
+      <c r="Q16" s="30">
+        <v>-10</v>
+      </c>
+      <c r="R16" s="29">
+        <v>-10</v>
       </c>
       <c r="S16" s="3">
-        <v>-5</v>
-      </c>
-      <c r="T16" s="33">
-        <v>-5</v>
-      </c>
-      <c r="U16" s="32">
-        <v>-5</v>
+        <v>-10</v>
+      </c>
+      <c r="T16" s="30">
+        <v>-10</v>
+      </c>
+      <c r="U16" s="29">
+        <v>-10</v>
       </c>
       <c r="V16" s="3">
-        <v>-5</v>
-      </c>
-      <c r="W16" s="33">
-        <v>-5</v>
+        <v>-10</v>
+      </c>
+      <c r="W16" s="30">
+        <v>-10</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>4</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="34">
+      <c r="B17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="31">
         <v>0</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="E17" s="35">
-        <v>0</v>
-      </c>
-      <c r="F17" s="34">
+      <c r="E17" s="32">
+        <v>0</v>
+      </c>
+      <c r="F17" s="31">
         <v>0</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
       </c>
-      <c r="H17" s="35">
-        <v>0</v>
-      </c>
-      <c r="I17" s="34">
-        <v>3</v>
+      <c r="H17" s="32">
+        <v>0</v>
+      </c>
+      <c r="I17" s="31">
+        <v>5</v>
       </c>
       <c r="J17" s="4">
+        <v>7</v>
+      </c>
+      <c r="K17" s="32">
+        <v>10</v>
+      </c>
+      <c r="L17" s="31">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="32">
+        <v>0</v>
+      </c>
+      <c r="O17" s="31">
         <v>5</v>
       </c>
-      <c r="K17" s="35">
+      <c r="P17" s="4">
         <v>7</v>
       </c>
-      <c r="L17" s="34">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
-      <c r="N17" s="35">
-        <v>0</v>
-      </c>
-      <c r="O17" s="34">
-        <v>3</v>
-      </c>
-      <c r="P17" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="35">
-        <v>7</v>
-      </c>
-      <c r="R17" s="34">
+      <c r="Q17" s="32">
+        <v>10</v>
+      </c>
+      <c r="R17" s="31">
         <v>0</v>
       </c>
       <c r="S17" s="4">
         <v>0</v>
       </c>
-      <c r="T17" s="35">
-        <v>0</v>
-      </c>
-      <c r="U17" s="34">
+      <c r="T17" s="32">
+        <v>0</v>
+      </c>
+      <c r="U17" s="31">
         <v>0</v>
       </c>
       <c r="V17" s="4">
         <v>0</v>
       </c>
-      <c r="W17" s="35">
+      <c r="W17" s="32">
         <v>0</v>
       </c>
     </row>
@@ -2516,70 +2530,70 @@
       <c r="A18" s="8">
         <v>5</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="33">
         <v>0</v>
       </c>
       <c r="D18" s="5">
         <v>0</v>
       </c>
-      <c r="E18" s="37">
-        <v>3</v>
-      </c>
-      <c r="F18" s="36">
+      <c r="E18" s="34">
+        <v>5</v>
+      </c>
+      <c r="F18" s="33">
         <v>0</v>
       </c>
       <c r="G18" s="5">
-        <v>3</v>
-      </c>
-      <c r="H18" s="37">
+        <v>10</v>
+      </c>
+      <c r="H18" s="34">
         <v>-10</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="33">
         <v>0</v>
       </c>
       <c r="J18" s="5">
         <v>0</v>
       </c>
-      <c r="K18" s="37">
-        <v>0</v>
-      </c>
-      <c r="L18" s="36">
+      <c r="K18" s="34">
+        <v>0</v>
+      </c>
+      <c r="L18" s="33">
         <v>0</v>
       </c>
       <c r="M18" s="5">
         <v>0</v>
       </c>
-      <c r="N18" s="37">
-        <v>0</v>
-      </c>
-      <c r="O18" s="36">
+      <c r="N18" s="34">
+        <v>0</v>
+      </c>
+      <c r="O18" s="33">
         <v>0</v>
       </c>
       <c r="P18" s="5">
         <v>0</v>
       </c>
-      <c r="Q18" s="37">
-        <v>0</v>
-      </c>
-      <c r="R18" s="36">
+      <c r="Q18" s="34">
+        <v>0</v>
+      </c>
+      <c r="R18" s="33">
         <v>0</v>
       </c>
       <c r="S18" s="5">
         <v>0</v>
       </c>
-      <c r="T18" s="37">
-        <v>0</v>
-      </c>
-      <c r="U18" s="36">
+      <c r="T18" s="34">
+        <v>0</v>
+      </c>
+      <c r="U18" s="33">
         <v>0</v>
       </c>
       <c r="V18" s="5">
         <v>0</v>
       </c>
-      <c r="W18" s="37">
+      <c r="W18" s="34">
         <v>0</v>
       </c>
     </row>
@@ -2587,70 +2601,70 @@
       <c r="A19" s="8">
         <v>6</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="35">
         <v>0</v>
       </c>
       <c r="D19" s="6">
-        <v>3</v>
-      </c>
-      <c r="E19" s="39">
-        <v>0</v>
-      </c>
-      <c r="F19" s="38">
+        <v>5</v>
+      </c>
+      <c r="E19" s="36">
+        <v>0</v>
+      </c>
+      <c r="F19" s="35">
         <v>0</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
       </c>
-      <c r="H19" s="39">
-        <v>0</v>
-      </c>
-      <c r="I19" s="38">
+      <c r="H19" s="36">
+        <v>0</v>
+      </c>
+      <c r="I19" s="35">
         <v>0</v>
       </c>
       <c r="J19" s="6">
         <v>0</v>
       </c>
-      <c r="K19" s="39">
-        <v>0</v>
-      </c>
-      <c r="L19" s="38">
+      <c r="K19" s="36">
+        <v>0</v>
+      </c>
+      <c r="L19" s="35">
         <v>0</v>
       </c>
       <c r="M19" s="6">
         <v>0</v>
       </c>
-      <c r="N19" s="39">
-        <v>0</v>
-      </c>
-      <c r="O19" s="38">
+      <c r="N19" s="36">
+        <v>0</v>
+      </c>
+      <c r="O19" s="35">
         <v>0</v>
       </c>
       <c r="P19" s="6">
         <v>0</v>
       </c>
-      <c r="Q19" s="39">
-        <v>0</v>
-      </c>
-      <c r="R19" s="38">
-        <v>3</v>
+      <c r="Q19" s="36">
+        <v>0</v>
+      </c>
+      <c r="R19" s="35">
+        <v>5</v>
       </c>
       <c r="S19" s="6">
-        <v>5</v>
-      </c>
-      <c r="T19" s="39">
         <v>7</v>
       </c>
-      <c r="U19" s="38">
+      <c r="T19" s="36">
+        <v>10</v>
+      </c>
+      <c r="U19" s="35">
         <v>0</v>
       </c>
       <c r="V19" s="6">
         <v>0</v>
       </c>
-      <c r="W19" s="39">
+      <c r="W19" s="36">
         <v>0</v>
       </c>
     </row>
@@ -2658,71 +2672,71 @@
       <c r="A20" s="8">
         <v>7</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="37">
         <v>5</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="38">
         <v>2</v>
       </c>
-      <c r="E20" s="42">
-        <v>3</v>
-      </c>
-      <c r="F20" s="40">
+      <c r="E20" s="39">
+        <v>3</v>
+      </c>
+      <c r="F20" s="37">
+        <v>10</v>
+      </c>
+      <c r="G20" s="38">
+        <v>5</v>
+      </c>
+      <c r="H20" s="39">
         <v>7</v>
       </c>
-      <c r="G20" s="41">
-        <v>3</v>
-      </c>
-      <c r="H20" s="42">
-        <v>5</v>
-      </c>
-      <c r="I20" s="40">
+      <c r="I20" s="37">
         <v>2</v>
       </c>
-      <c r="J20" s="41">
+      <c r="J20" s="38">
         <v>2</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="39">
         <v>2</v>
       </c>
-      <c r="L20" s="40">
-        <v>0</v>
-      </c>
-      <c r="M20" s="41">
-        <v>0</v>
-      </c>
-      <c r="N20" s="42">
-        <v>0</v>
-      </c>
-      <c r="O20" s="40">
-        <v>0</v>
-      </c>
-      <c r="P20" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="42">
-        <v>0</v>
-      </c>
-      <c r="R20" s="40">
-        <v>0</v>
-      </c>
-      <c r="S20" s="41">
-        <v>0</v>
-      </c>
-      <c r="T20" s="42">
-        <v>0</v>
-      </c>
-      <c r="U20" s="40">
+      <c r="L20" s="37">
         <v>-3</v>
       </c>
-      <c r="V20" s="41">
-        <v>-5</v>
-      </c>
-      <c r="W20" s="42">
+      <c r="M20" s="38">
+        <v>-3</v>
+      </c>
+      <c r="N20" s="39">
+        <v>-3</v>
+      </c>
+      <c r="O20" s="37">
+        <v>-3</v>
+      </c>
+      <c r="P20" s="38">
+        <v>-3</v>
+      </c>
+      <c r="Q20" s="39">
+        <v>-3</v>
+      </c>
+      <c r="R20" s="37">
+        <v>-3</v>
+      </c>
+      <c r="S20" s="38">
+        <v>-3</v>
+      </c>
+      <c r="T20" s="39">
+        <v>-3</v>
+      </c>
+      <c r="U20" s="37">
         <v>-7</v>
+      </c>
+      <c r="V20" s="38">
+        <v>-10</v>
+      </c>
+      <c r="W20" s="39">
+        <v>-15</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2747,6 +2761,30 @@
       <c r="G22" s="8">
         <v>6</v>
       </c>
+      <c r="L22" s="52">
+        <f ca="1">RANDBETWEEN(11,13)</f>
+        <v>13</v>
+      </c>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52">
+        <f ca="1">RANDBETWEEN(14,16)</f>
+        <v>16</v>
+      </c>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52">
+        <f ca="1">RANDBETWEEN(17,19)</f>
+        <v>18</v>
+      </c>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52">
+        <f ca="1">RANDBETWEEN(20,22)</f>
+        <v>20</v>
+      </c>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
     </row>
     <row r="23" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
@@ -2779,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="8">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
@@ -2805,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="8">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E25" s="8">
         <v>0</v>
@@ -2825,7 +2863,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="8">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="D26" s="8">
         <v>0</v>
@@ -2848,7 +2886,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="8">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="D27" s="8">
         <v>20</v>
@@ -2857,7 +2895,7 @@
         <v>20</v>
       </c>
       <c r="F27" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G27" s="8">
         <v>0</v>
@@ -2871,13 +2909,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="8">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8">
         <v>0</v>
       </c>
       <c r="E28" s="8">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F28" s="8">
         <v>0</v>
@@ -2910,33 +2948,42 @@
       </c>
     </row>
     <row r="30" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="17"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="8" t="b">
-        <f>AND($Z$4&gt;C$24,$Z$5&gt;C$25,$Z$6&gt;C$26,$Z$7&gt;C$27,$Z$8&gt;C$28,$Z$9&gt;C$29)</f>
+        <f ca="1">AND($Z$4&gt;C$24,$Z$5&gt;C$25,$Z$6&gt;C$26,$Z$7&gt;C$27,$Z$8&gt;C$28,$Z$9&gt;C$29)</f>
         <v>0</v>
       </c>
       <c r="D30" s="8" t="b">
-        <f>AND($Z$4&gt;D$24,$Z$5&gt;D$25,$Z$6&gt;D$26,$Z$7&gt;D$27,$Z$8&gt;D$28,$Z$9&gt;D$29)</f>
-        <v>1</v>
+        <f ca="1">AND($Z$4&gt;D$24,$Z$5&gt;D$25,$Z$6&gt;D$26,$Z$7&gt;D$27,$Z$8&gt;D$28,$Z$9&gt;D$29)</f>
+        <v>0</v>
       </c>
       <c r="E30" s="8" t="b">
-        <f>AND($Z$4&gt;E$24,$Z$5&gt;E$25,$Z$6&gt;E$26,$Z$7&gt;E$27,$Z$8&gt;E$28,$Z$9&gt;E$29)</f>
+        <f ca="1">AND($Z$4&gt;E$24,$Z$5&gt;E$25,$Z$6&gt;E$26,$Z$7&gt;E$27,$Z$8&gt;E$28,$Z$9&gt;E$29)</f>
         <v>0</v>
       </c>
       <c r="F30" s="8" t="b">
-        <f>AND($Z$4&gt;F$24,$Z$5&gt;F$25,$Z$6&gt;F$26,$Z$7&gt;F$27,$Z$8&gt;F$28,$Z$9&gt;F$29)</f>
-        <v>1</v>
+        <f ca="1">AND($Z$4&gt;F$24,$Z$5&gt;F$25,$Z$6&gt;F$26,$Z$7&gt;F$27,$Z$8&gt;F$28,$Z$9&gt;F$29)</f>
+        <v>0</v>
       </c>
       <c r="G30" s="8" t="b">
-        <f>AND($Z$4&gt;G$24,$Z$5&gt;G$25,$Z$6&gt;G$26,$Z$7&gt;G$27,$Z$8&gt;G$28,$Z$9&gt;G$29)</f>
-        <v>1</v>
+        <f ca="1">AND($Z$4&gt;G$24,$Z$5&gt;G$25,$Z$6&gt;G$26,$Z$7&gt;G$27,$Z$8&gt;G$28,$Z$9&gt;G$29)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="17">
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="L11:W11"/>
     <mergeCell ref="C11:E12"/>
     <mergeCell ref="F11:H12"/>
@@ -2945,11 +2992,6 @@
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="R12:T12"/>
     <mergeCell ref="U12:W12"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
